--- a/fts_medico/01-dados/PIB.xlsx
+++ b/fts_medico/01-dados/PIB.xlsx
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e94e91ad3b9f2a1e/Documentos/Analise_FTS_medicos/fts_medico/01-dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9BAE688-5E29-47B3-B9F5-35157967063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D9BAE688-5E29-47B3-B9F5-35157967063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6675294-CAE4-4D00-A378-57CC65FE3F8E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="3180" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela" sheetId="1" r:id="rId1"/>
     <sheet name="Notas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
   <si>
     <t>5200050</t>
   </si>
@@ -759,9 +770,6 @@
   </si>
   <si>
     <t>5222302</t>
-  </si>
-  <si>
-    <t>Fonte: IBGE, em parceria com os Órgãos Estaduais de Estatística, Secretarias Estaduais de Governo e Superintendência da Zona Franca de Manaus - SUFRAMA</t>
   </si>
   <si>
     <t>Notas</t>
@@ -1617,8 +1625,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1958,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A248" sqref="A248:XFD248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,13 +1980,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" t="s">
         <v>264</v>
       </c>
-      <c r="B1" t="s">
-        <v>265</v>
-      </c>
       <c r="C1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1986,9 +1994,9 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="2">
+        <v>265</v>
+      </c>
+      <c r="C2" s="1">
         <v>353700</v>
       </c>
     </row>
@@ -1997,9 +2005,9 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="2">
+        <v>266</v>
+      </c>
+      <c r="C3" s="1">
         <v>445324</v>
       </c>
     </row>
@@ -2008,9 +2016,9 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C4" s="2">
+        <v>267</v>
+      </c>
+      <c r="C4" s="1">
         <v>1051834</v>
       </c>
     </row>
@@ -2019,9 +2027,9 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="2">
+        <v>268</v>
+      </c>
+      <c r="C5" s="1">
         <v>48793</v>
       </c>
     </row>
@@ -2030,9 +2038,9 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="2">
+        <v>269</v>
+      </c>
+      <c r="C6" s="1">
         <v>533233</v>
       </c>
     </row>
@@ -2041,9 +2049,9 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="2">
+        <v>270</v>
+      </c>
+      <c r="C7" s="1">
         <v>63847</v>
       </c>
     </row>
@@ -2052,9 +2060,9 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C8" s="2">
+        <v>271</v>
+      </c>
+      <c r="C8" s="1">
         <v>2463152</v>
       </c>
     </row>
@@ -2063,9 +2071,9 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="2">
+        <v>272</v>
+      </c>
+      <c r="C9" s="1">
         <v>1128054</v>
       </c>
     </row>
@@ -2074,9 +2082,9 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C10" s="2">
+        <v>273</v>
+      </c>
+      <c r="C10" s="1">
         <v>63728</v>
       </c>
     </row>
@@ -2085,9 +2093,9 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C11" s="2">
+        <v>274</v>
+      </c>
+      <c r="C11" s="1">
         <v>1280223</v>
       </c>
     </row>
@@ -2096,9 +2104,9 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12" s="2">
+        <v>275</v>
+      </c>
+      <c r="C12" s="1">
         <v>297011</v>
       </c>
     </row>
@@ -2107,9 +2115,9 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" s="2">
+        <v>276</v>
+      </c>
+      <c r="C13" s="1">
         <v>169008</v>
       </c>
     </row>
@@ -2118,9 +2126,9 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="2">
+        <v>277</v>
+      </c>
+      <c r="C14" s="1">
         <v>109077</v>
       </c>
     </row>
@@ -2129,9 +2137,9 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C15" s="2">
+        <v>278</v>
+      </c>
+      <c r="C15" s="1">
         <v>91400</v>
       </c>
     </row>
@@ -2140,9 +2148,9 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>280</v>
-      </c>
-      <c r="C16" s="2">
+        <v>279</v>
+      </c>
+      <c r="C16" s="1">
         <v>118903</v>
       </c>
     </row>
@@ -2151,9 +2159,9 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>281</v>
-      </c>
-      <c r="C17" s="2">
+        <v>280</v>
+      </c>
+      <c r="C17" s="1">
         <v>17788289</v>
       </c>
     </row>
@@ -2162,9 +2170,9 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C18" s="2">
+        <v>281</v>
+      </c>
+      <c r="C18" s="1">
         <v>21691</v>
       </c>
     </row>
@@ -2173,9 +2181,9 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>283</v>
-      </c>
-      <c r="C19" s="2">
+        <v>282</v>
+      </c>
+      <c r="C19" s="1">
         <v>512555</v>
       </c>
     </row>
@@ -2184,9 +2192,9 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="2">
+        <v>283</v>
+      </c>
+      <c r="C20" s="1">
         <v>16979984</v>
       </c>
     </row>
@@ -2195,9 +2203,9 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
-      </c>
-      <c r="C21" s="2">
+        <v>284</v>
+      </c>
+      <c r="C21" s="1">
         <v>110072</v>
       </c>
     </row>
@@ -2206,9 +2214,9 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>286</v>
-      </c>
-      <c r="C22" s="2">
+        <v>285</v>
+      </c>
+      <c r="C22" s="1">
         <v>395713</v>
       </c>
     </row>
@@ -2217,9 +2225,9 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>287</v>
-      </c>
-      <c r="C23" s="2">
+        <v>286</v>
+      </c>
+      <c r="C23" s="1">
         <v>73496</v>
       </c>
     </row>
@@ -2228,9 +2236,9 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>288</v>
-      </c>
-      <c r="C24" s="2">
+        <v>287</v>
+      </c>
+      <c r="C24" s="1">
         <v>277710</v>
       </c>
     </row>
@@ -2239,9 +2247,9 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>289</v>
-      </c>
-      <c r="C25" s="2">
+        <v>288</v>
+      </c>
+      <c r="C25" s="1">
         <v>174315</v>
       </c>
     </row>
@@ -2250,9 +2258,9 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>290</v>
-      </c>
-      <c r="C26" s="2">
+        <v>289</v>
+      </c>
+      <c r="C26" s="1">
         <v>180123</v>
       </c>
     </row>
@@ -2261,9 +2269,9 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
-      </c>
-      <c r="C27" s="2">
+        <v>290</v>
+      </c>
+      <c r="C27" s="1">
         <v>222580</v>
       </c>
     </row>
@@ -2272,9 +2280,9 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>292</v>
-      </c>
-      <c r="C28" s="2">
+        <v>291</v>
+      </c>
+      <c r="C28" s="1">
         <v>291962</v>
       </c>
     </row>
@@ -2283,9 +2291,9 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>293</v>
-      </c>
-      <c r="C29" s="2">
+        <v>292</v>
+      </c>
+      <c r="C29" s="1">
         <v>81573</v>
       </c>
     </row>
@@ -2294,9 +2302,9 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
-      </c>
-      <c r="C30" s="2">
+        <v>293</v>
+      </c>
+      <c r="C30" s="1">
         <v>68050</v>
       </c>
     </row>
@@ -2305,9 +2313,9 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>295</v>
-      </c>
-      <c r="C31" s="2">
+        <v>294</v>
+      </c>
+      <c r="C31" s="1">
         <v>123238</v>
       </c>
     </row>
@@ -2316,9 +2324,9 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>296</v>
-      </c>
-      <c r="C32" s="2">
+        <v>295</v>
+      </c>
+      <c r="C32" s="1">
         <v>1573567</v>
       </c>
     </row>
@@ -2327,9 +2335,9 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>297</v>
-      </c>
-      <c r="C33" s="2">
+        <v>296</v>
+      </c>
+      <c r="C33" s="1">
         <v>1480966</v>
       </c>
     </row>
@@ -2338,9 +2346,9 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>298</v>
-      </c>
-      <c r="C34" s="2">
+        <v>297</v>
+      </c>
+      <c r="C34" s="1">
         <v>257660</v>
       </c>
     </row>
@@ -2349,9 +2357,9 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35" s="2">
+        <v>298</v>
+      </c>
+      <c r="C35" s="1">
         <v>1229633</v>
       </c>
     </row>
@@ -2360,9 +2368,9 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>300</v>
-      </c>
-      <c r="C36" s="2">
+        <v>299</v>
+      </c>
+      <c r="C36" s="1">
         <v>121138</v>
       </c>
     </row>
@@ -2371,9 +2379,9 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>301</v>
-      </c>
-      <c r="C37" s="2">
+        <v>300</v>
+      </c>
+      <c r="C37" s="1">
         <v>156630</v>
       </c>
     </row>
@@ -2382,9 +2390,9 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>302</v>
-      </c>
-      <c r="C38" s="2">
+        <v>301</v>
+      </c>
+      <c r="C38" s="1">
         <v>93833</v>
       </c>
     </row>
@@ -2393,9 +2401,9 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>303</v>
-      </c>
-      <c r="C39" s="2">
+        <v>302</v>
+      </c>
+      <c r="C39" s="1">
         <v>198101</v>
       </c>
     </row>
@@ -2404,9 +2412,9 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>304</v>
-      </c>
-      <c r="C40" s="2">
+        <v>303</v>
+      </c>
+      <c r="C40" s="1">
         <v>467717</v>
       </c>
     </row>
@@ -2415,9 +2423,9 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>305</v>
-      </c>
-      <c r="C41" s="2">
+        <v>304</v>
+      </c>
+      <c r="C41" s="1">
         <v>56916</v>
       </c>
     </row>
@@ -2426,9 +2434,9 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>306</v>
-      </c>
-      <c r="C42" s="2">
+        <v>305</v>
+      </c>
+      <c r="C42" s="1">
         <v>88900</v>
       </c>
     </row>
@@ -2437,9 +2445,9 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
-      </c>
-      <c r="C43" s="2">
+        <v>306</v>
+      </c>
+      <c r="C43" s="1">
         <v>475939</v>
       </c>
     </row>
@@ -2448,9 +2456,9 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>308</v>
-      </c>
-      <c r="C44" s="2">
+        <v>307</v>
+      </c>
+      <c r="C44" s="1">
         <v>281679</v>
       </c>
     </row>
@@ -2459,9 +2467,9 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>309</v>
-      </c>
-      <c r="C45" s="2">
+        <v>308</v>
+      </c>
+      <c r="C45" s="1">
         <v>38869</v>
       </c>
     </row>
@@ -2470,9 +2478,9 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>310</v>
-      </c>
-      <c r="C46" s="2">
+        <v>309</v>
+      </c>
+      <c r="C46" s="1">
         <v>69455</v>
       </c>
     </row>
@@ -2481,9 +2489,9 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>311</v>
-      </c>
-      <c r="C47" s="2">
+        <v>310</v>
+      </c>
+      <c r="C47" s="1">
         <v>904592</v>
       </c>
     </row>
@@ -2492,9 +2500,9 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>312</v>
-      </c>
-      <c r="C48" s="2">
+        <v>311</v>
+      </c>
+      <c r="C48" s="1">
         <v>821653</v>
       </c>
     </row>
@@ -2503,9 +2511,9 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>313</v>
-      </c>
-      <c r="C49" s="2">
+        <v>312</v>
+      </c>
+      <c r="C49" s="1">
         <v>3000886</v>
       </c>
     </row>
@@ -2514,9 +2522,9 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>314</v>
-      </c>
-      <c r="C50" s="2">
+        <v>313</v>
+      </c>
+      <c r="C50" s="1">
         <v>84638</v>
       </c>
     </row>
@@ -2525,9 +2533,9 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>315</v>
-      </c>
-      <c r="C51" s="2">
+        <v>314</v>
+      </c>
+      <c r="C51" s="1">
         <v>72737</v>
       </c>
     </row>
@@ -2536,9 +2544,9 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>316</v>
-      </c>
-      <c r="C52" s="2">
+        <v>315</v>
+      </c>
+      <c r="C52" s="1">
         <v>110500</v>
       </c>
     </row>
@@ -2547,9 +2555,9 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>317</v>
-      </c>
-      <c r="C53" s="2">
+        <v>316</v>
+      </c>
+      <c r="C53" s="1">
         <v>333013</v>
       </c>
     </row>
@@ -2558,9 +2566,9 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>318</v>
-      </c>
-      <c r="C54" s="2">
+        <v>317</v>
+      </c>
+      <c r="C54" s="1">
         <v>846728</v>
       </c>
     </row>
@@ -2569,9 +2577,9 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>319</v>
-      </c>
-      <c r="C55" s="2">
+        <v>318</v>
+      </c>
+      <c r="C55" s="1">
         <v>165099</v>
       </c>
     </row>
@@ -2580,9 +2588,9 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>320</v>
-      </c>
-      <c r="C56" s="2">
+        <v>319</v>
+      </c>
+      <c r="C56" s="1">
         <v>315295</v>
       </c>
     </row>
@@ -2591,9 +2599,9 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>321</v>
-      </c>
-      <c r="C57" s="2">
+        <v>320</v>
+      </c>
+      <c r="C57" s="1">
         <v>56347</v>
       </c>
     </row>
@@ -2602,9 +2610,9 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>322</v>
-      </c>
-      <c r="C58" s="2">
+        <v>321</v>
+      </c>
+      <c r="C58" s="1">
         <v>488084</v>
       </c>
     </row>
@@ -2613,9 +2621,9 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>323</v>
-      </c>
-      <c r="C59" s="2">
+        <v>322</v>
+      </c>
+      <c r="C59" s="1">
         <v>91614</v>
       </c>
     </row>
@@ -2624,9 +2632,9 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>324</v>
-      </c>
-      <c r="C60" s="2">
+        <v>323</v>
+      </c>
+      <c r="C60" s="1">
         <v>9916468</v>
       </c>
     </row>
@@ -2635,9 +2643,9 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C61" s="2">
+        <v>324</v>
+      </c>
+      <c r="C61" s="1">
         <v>100768</v>
       </c>
     </row>
@@ -2646,9 +2654,9 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>326</v>
-      </c>
-      <c r="C62" s="2">
+        <v>325</v>
+      </c>
+      <c r="C62" s="1">
         <v>383000</v>
       </c>
     </row>
@@ -2657,9 +2665,9 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>327</v>
-      </c>
-      <c r="C63" s="2">
+        <v>326</v>
+      </c>
+      <c r="C63" s="1">
         <v>734660</v>
       </c>
     </row>
@@ -2668,9 +2676,9 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>328</v>
-      </c>
-      <c r="C64" s="2">
+        <v>327</v>
+      </c>
+      <c r="C64" s="1">
         <v>384996</v>
       </c>
     </row>
@@ -2679,9 +2687,9 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>329</v>
-      </c>
-      <c r="C65" s="2">
+        <v>328</v>
+      </c>
+      <c r="C65" s="1">
         <v>2188716</v>
       </c>
     </row>
@@ -2690,9 +2698,9 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>330</v>
-      </c>
-      <c r="C66" s="2">
+        <v>329</v>
+      </c>
+      <c r="C66" s="1">
         <v>1006150</v>
       </c>
     </row>
@@ -2701,9 +2709,9 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>331</v>
-      </c>
-      <c r="C67" s="2">
+        <v>330</v>
+      </c>
+      <c r="C67" s="1">
         <v>436319</v>
       </c>
     </row>
@@ -2712,9 +2720,9 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>332</v>
-      </c>
-      <c r="C68" s="2">
+        <v>331</v>
+      </c>
+      <c r="C68" s="1">
         <v>70439</v>
       </c>
     </row>
@@ -2723,9 +2731,9 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>333</v>
-      </c>
-      <c r="C69" s="2">
+        <v>332</v>
+      </c>
+      <c r="C69" s="1">
         <v>74372</v>
       </c>
     </row>
@@ -2734,9 +2742,9 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>334</v>
-      </c>
-      <c r="C70" s="2">
+        <v>333</v>
+      </c>
+      <c r="C70" s="1">
         <v>260241</v>
       </c>
     </row>
@@ -2745,9 +2753,9 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>335</v>
-      </c>
-      <c r="C71" s="2">
+        <v>334</v>
+      </c>
+      <c r="C71" s="1">
         <v>709241</v>
       </c>
     </row>
@@ -2756,9 +2764,9 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>336</v>
-      </c>
-      <c r="C72" s="2">
+        <v>335</v>
+      </c>
+      <c r="C72" s="1">
         <v>4602318</v>
       </c>
     </row>
@@ -2767,9 +2775,9 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>337</v>
-      </c>
-      <c r="C73" s="2">
+        <v>336</v>
+      </c>
+      <c r="C73" s="1">
         <v>120103</v>
       </c>
     </row>
@@ -2778,9 +2786,9 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>338</v>
-      </c>
-      <c r="C74" s="2">
+        <v>337</v>
+      </c>
+      <c r="C74" s="1">
         <v>699319</v>
       </c>
     </row>
@@ -2789,9 +2797,9 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>339</v>
-      </c>
-      <c r="C75" s="2">
+        <v>338</v>
+      </c>
+      <c r="C75" s="1">
         <v>99558</v>
       </c>
     </row>
@@ -2800,9 +2808,9 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>340</v>
-      </c>
-      <c r="C76" s="2">
+        <v>339</v>
+      </c>
+      <c r="C76" s="1">
         <v>96867</v>
       </c>
     </row>
@@ -2811,9 +2819,9 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>341</v>
-      </c>
-      <c r="C77" s="2">
+        <v>340</v>
+      </c>
+      <c r="C77" s="1">
         <v>44977</v>
       </c>
     </row>
@@ -2822,9 +2830,9 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>342</v>
-      </c>
-      <c r="C78" s="2">
+        <v>341</v>
+      </c>
+      <c r="C78" s="1">
         <v>52496</v>
       </c>
     </row>
@@ -2833,9 +2841,9 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>343</v>
-      </c>
-      <c r="C79" s="2">
+        <v>342</v>
+      </c>
+      <c r="C79" s="1">
         <v>583084</v>
       </c>
     </row>
@@ -2844,9 +2852,9 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>344</v>
-      </c>
-      <c r="C80" s="2">
+        <v>343</v>
+      </c>
+      <c r="C80" s="1">
         <v>96842</v>
       </c>
     </row>
@@ -2855,9 +2863,9 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>345</v>
-      </c>
-      <c r="C81" s="2">
+        <v>344</v>
+      </c>
+      <c r="C81" s="1">
         <v>400869</v>
       </c>
     </row>
@@ -2866,9 +2874,9 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>346</v>
-      </c>
-      <c r="C82" s="2">
+        <v>345</v>
+      </c>
+      <c r="C82" s="1">
         <v>405203</v>
       </c>
     </row>
@@ -2877,9 +2885,9 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>347</v>
-      </c>
-      <c r="C83" s="2">
+        <v>346</v>
+      </c>
+      <c r="C83" s="1">
         <v>923319</v>
       </c>
     </row>
@@ -2888,9 +2896,9 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>348</v>
-      </c>
-      <c r="C84" s="2">
+        <v>347</v>
+      </c>
+      <c r="C84" s="1">
         <v>74794</v>
       </c>
     </row>
@@ -2899,9 +2907,9 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>349</v>
-      </c>
-      <c r="C85" s="2">
+        <v>348</v>
+      </c>
+      <c r="C85" s="1">
         <v>167592</v>
       </c>
     </row>
@@ -2910,9 +2918,9 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>350</v>
-      </c>
-      <c r="C86" s="2">
+        <v>349</v>
+      </c>
+      <c r="C86" s="1">
         <v>152399</v>
       </c>
     </row>
@@ -2921,9 +2929,9 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>351</v>
-      </c>
-      <c r="C87" s="2">
+        <v>350</v>
+      </c>
+      <c r="C87" s="1">
         <v>272114</v>
       </c>
     </row>
@@ -2932,9 +2940,9 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>352</v>
-      </c>
-      <c r="C88" s="2">
+        <v>351</v>
+      </c>
+      <c r="C88" s="1">
         <v>250936</v>
       </c>
     </row>
@@ -2943,9 +2951,9 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>353</v>
-      </c>
-      <c r="C89" s="2">
+        <v>352</v>
+      </c>
+      <c r="C89" s="1">
         <v>3247792</v>
       </c>
     </row>
@@ -2954,9 +2962,9 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>354</v>
-      </c>
-      <c r="C90" s="2">
+        <v>353</v>
+      </c>
+      <c r="C90" s="1">
         <v>111669</v>
       </c>
     </row>
@@ -2965,9 +2973,9 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>355</v>
-      </c>
-      <c r="C91" s="2">
+        <v>354</v>
+      </c>
+      <c r="C91" s="1">
         <v>312523</v>
       </c>
     </row>
@@ -2976,9 +2984,9 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>356</v>
-      </c>
-      <c r="C92" s="2">
+        <v>355</v>
+      </c>
+      <c r="C92" s="1">
         <v>91700</v>
       </c>
     </row>
@@ -2987,9 +2995,9 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>357</v>
-      </c>
-      <c r="C93" s="2">
+        <v>356</v>
+      </c>
+      <c r="C93" s="1">
         <v>294381</v>
       </c>
     </row>
@@ -2998,9 +3006,9 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>358</v>
-      </c>
-      <c r="C94" s="2">
+        <v>357</v>
+      </c>
+      <c r="C94" s="1">
         <v>202194</v>
       </c>
     </row>
@@ -3009,9 +3017,9 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>359</v>
-      </c>
-      <c r="C95" s="2">
+        <v>358</v>
+      </c>
+      <c r="C95" s="1">
         <v>1888263</v>
       </c>
     </row>
@@ -3020,9 +3028,9 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>360</v>
-      </c>
-      <c r="C96" s="2">
+        <v>359</v>
+      </c>
+      <c r="C96" s="1">
         <v>59865990</v>
       </c>
     </row>
@@ -3031,9 +3039,9 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>361</v>
-      </c>
-      <c r="C97" s="2">
+        <v>360</v>
+      </c>
+      <c r="C97" s="1">
         <v>1102687</v>
       </c>
     </row>
@@ -3042,9 +3050,9 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>362</v>
-      </c>
-      <c r="C98" s="2">
+        <v>361</v>
+      </c>
+      <c r="C98" s="1">
         <v>763707</v>
       </c>
     </row>
@@ -3053,9 +3061,9 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>363</v>
-      </c>
-      <c r="C99" s="2">
+        <v>362</v>
+      </c>
+      <c r="C99" s="1">
         <v>2169433</v>
       </c>
     </row>
@@ -3064,9 +3072,9 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>364</v>
-      </c>
-      <c r="C100" s="2">
+        <v>363</v>
+      </c>
+      <c r="C100" s="1">
         <v>169369</v>
       </c>
     </row>
@@ -3075,9 +3083,9 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>365</v>
-      </c>
-      <c r="C101" s="2">
+        <v>364</v>
+      </c>
+      <c r="C101" s="1">
         <v>347667</v>
       </c>
     </row>
@@ -3086,9 +3094,9 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>366</v>
-      </c>
-      <c r="C102" s="2">
+        <v>365</v>
+      </c>
+      <c r="C102" s="1">
         <v>52169</v>
       </c>
     </row>
@@ -3097,9 +3105,9 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>367</v>
-      </c>
-      <c r="C103" s="2">
+        <v>366</v>
+      </c>
+      <c r="C103" s="1">
         <v>86085</v>
       </c>
     </row>
@@ -3108,9 +3116,9 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>368</v>
-      </c>
-      <c r="C104" s="2">
+        <v>367</v>
+      </c>
+      <c r="C104" s="1">
         <v>64343</v>
       </c>
     </row>
@@ -3119,9 +3127,9 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>369</v>
-      </c>
-      <c r="C105" s="2">
+        <v>368</v>
+      </c>
+      <c r="C105" s="1">
         <v>83875</v>
       </c>
     </row>
@@ -3130,9 +3138,9 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>370</v>
-      </c>
-      <c r="C106" s="2">
+        <v>369</v>
+      </c>
+      <c r="C106" s="1">
         <v>1329143</v>
       </c>
     </row>
@@ -3141,9 +3149,9 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>371</v>
-      </c>
-      <c r="C107" s="2">
+        <v>370</v>
+      </c>
+      <c r="C107" s="1">
         <v>87743</v>
       </c>
     </row>
@@ -3152,9 +3160,9 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>372</v>
-      </c>
-      <c r="C108" s="2">
+        <v>371</v>
+      </c>
+      <c r="C108" s="1">
         <v>226513</v>
       </c>
     </row>
@@ -3163,9 +3171,9 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>373</v>
-      </c>
-      <c r="C109" s="2">
+        <v>372</v>
+      </c>
+      <c r="C109" s="1">
         <v>237525</v>
       </c>
     </row>
@@ -3174,9 +3182,9 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>374</v>
-      </c>
-      <c r="C110" s="2">
+        <v>373</v>
+      </c>
+      <c r="C110" s="1">
         <v>656300</v>
       </c>
     </row>
@@ -3185,9 +3193,9 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>375</v>
-      </c>
-      <c r="C111" s="2">
+        <v>374</v>
+      </c>
+      <c r="C111" s="1">
         <v>1406216</v>
       </c>
     </row>
@@ -3196,9 +3204,9 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>376</v>
-      </c>
-      <c r="C112" s="2">
+        <v>375</v>
+      </c>
+      <c r="C112" s="1">
         <v>2429403</v>
       </c>
     </row>
@@ -3207,9 +3215,9 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>377</v>
-      </c>
-      <c r="C113" s="2">
+        <v>376</v>
+      </c>
+      <c r="C113" s="1">
         <v>69939</v>
       </c>
     </row>
@@ -3218,9 +3226,9 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>378</v>
-      </c>
-      <c r="C114" s="2">
+        <v>377</v>
+      </c>
+      <c r="C114" s="1">
         <v>876296</v>
       </c>
     </row>
@@ -3229,9 +3237,9 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>379</v>
-      </c>
-      <c r="C115" s="2">
+        <v>378</v>
+      </c>
+      <c r="C115" s="1">
         <v>71461</v>
       </c>
     </row>
@@ -3240,9 +3248,9 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>380</v>
-      </c>
-      <c r="C116" s="2">
+        <v>379</v>
+      </c>
+      <c r="C116" s="1">
         <v>1804955</v>
       </c>
     </row>
@@ -3251,9 +3259,9 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>381</v>
-      </c>
-      <c r="C117" s="2">
+        <v>380</v>
+      </c>
+      <c r="C117" s="1">
         <v>98133</v>
       </c>
     </row>
@@ -3262,9 +3270,9 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>382</v>
-      </c>
-      <c r="C118" s="2">
+        <v>381</v>
+      </c>
+      <c r="C118" s="1">
         <v>104080</v>
       </c>
     </row>
@@ -3273,9 +3281,9 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>383</v>
-      </c>
-      <c r="C119" s="2">
+        <v>382</v>
+      </c>
+      <c r="C119" s="1">
         <v>131496</v>
       </c>
     </row>
@@ -3284,9 +3292,9 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>384</v>
-      </c>
-      <c r="C120" s="2">
+        <v>383</v>
+      </c>
+      <c r="C120" s="1">
         <v>547546</v>
       </c>
     </row>
@@ -3295,9 +3303,9 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>385</v>
-      </c>
-      <c r="C121" s="2">
+        <v>384</v>
+      </c>
+      <c r="C121" s="1">
         <v>222269</v>
       </c>
     </row>
@@ -3306,9 +3314,9 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>386</v>
-      </c>
-      <c r="C122" s="2">
+        <v>385</v>
+      </c>
+      <c r="C122" s="1">
         <v>553555</v>
       </c>
     </row>
@@ -3317,9 +3325,9 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>387</v>
-      </c>
-      <c r="C123" s="2">
+        <v>386</v>
+      </c>
+      <c r="C123" s="1">
         <v>324831</v>
       </c>
     </row>
@@ -3328,9 +3336,9 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>388</v>
-      </c>
-      <c r="C124" s="2">
+        <v>387</v>
+      </c>
+      <c r="C124" s="1">
         <v>219235</v>
       </c>
     </row>
@@ -3339,9 +3347,9 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>389</v>
-      </c>
-      <c r="C125" s="2">
+        <v>388</v>
+      </c>
+      <c r="C125" s="1">
         <v>5324330</v>
       </c>
     </row>
@@ -3350,9 +3358,9 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>390</v>
-      </c>
-      <c r="C126" s="2">
+        <v>389</v>
+      </c>
+      <c r="C126" s="1">
         <v>139620</v>
       </c>
     </row>
@@ -3361,9 +3369,9 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>391</v>
-      </c>
-      <c r="C127" s="2">
+        <v>390</v>
+      </c>
+      <c r="C127" s="1">
         <v>426814</v>
       </c>
     </row>
@@ -3372,9 +3380,9 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>392</v>
-      </c>
-      <c r="C128" s="2">
+        <v>391</v>
+      </c>
+      <c r="C128" s="1">
         <v>919741</v>
       </c>
     </row>
@@ -3383,9 +3391,9 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>393</v>
-      </c>
-      <c r="C129" s="2">
+        <v>392</v>
+      </c>
+      <c r="C129" s="1">
         <v>7996737</v>
       </c>
     </row>
@@ -3394,9 +3402,9 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>394</v>
-      </c>
-      <c r="C130" s="2">
+        <v>393</v>
+      </c>
+      <c r="C130" s="1">
         <v>83148</v>
       </c>
     </row>
@@ -3405,9 +3413,9 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>395</v>
-      </c>
-      <c r="C131" s="2">
+        <v>394</v>
+      </c>
+      <c r="C131" s="1">
         <v>39661</v>
       </c>
     </row>
@@ -3416,9 +3424,9 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>396</v>
-      </c>
-      <c r="C132" s="2">
+        <v>395</v>
+      </c>
+      <c r="C132" s="1">
         <v>342128</v>
       </c>
     </row>
@@ -3427,9 +3435,9 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>397</v>
-      </c>
-      <c r="C133" s="2">
+        <v>396</v>
+      </c>
+      <c r="C133" s="1">
         <v>693476</v>
       </c>
     </row>
@@ -3438,9 +3446,9 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>398</v>
-      </c>
-      <c r="C134" s="2">
+        <v>397</v>
+      </c>
+      <c r="C134" s="1">
         <v>51073</v>
       </c>
     </row>
@@ -3449,9 +3457,9 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>399</v>
-      </c>
-      <c r="C135" s="2">
+        <v>398</v>
+      </c>
+      <c r="C135" s="1">
         <v>343211</v>
       </c>
     </row>
@@ -3460,9 +3468,9 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>400</v>
-      </c>
-      <c r="C136" s="2">
+        <v>399</v>
+      </c>
+      <c r="C136" s="1">
         <v>5435386</v>
       </c>
     </row>
@@ -3471,9 +3479,9 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>401</v>
-      </c>
-      <c r="C137" s="2">
+        <v>400</v>
+      </c>
+      <c r="C137" s="1">
         <v>88293</v>
       </c>
     </row>
@@ -3482,9 +3490,9 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>402</v>
-      </c>
-      <c r="C138" s="2">
+        <v>401</v>
+      </c>
+      <c r="C138" s="1">
         <v>107530</v>
       </c>
     </row>
@@ -3493,9 +3501,9 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>403</v>
-      </c>
-      <c r="C139" s="2">
+        <v>402</v>
+      </c>
+      <c r="C139" s="1">
         <v>291248</v>
       </c>
     </row>
@@ -3504,9 +3512,9 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>404</v>
-      </c>
-      <c r="C140" s="2">
+        <v>403</v>
+      </c>
+      <c r="C140" s="1">
         <v>68532</v>
       </c>
     </row>
@@ -3515,9 +3523,9 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>405</v>
-      </c>
-      <c r="C141" s="2">
+        <v>404</v>
+      </c>
+      <c r="C141" s="1">
         <v>170652</v>
       </c>
     </row>
@@ -3526,9 +3534,9 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>406</v>
-      </c>
-      <c r="C142" s="2">
+        <v>405</v>
+      </c>
+      <c r="C142" s="1">
         <v>247891</v>
       </c>
     </row>
@@ -3537,9 +3545,9 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>407</v>
-      </c>
-      <c r="C143" s="2">
+        <v>406</v>
+      </c>
+      <c r="C143" s="1">
         <v>247554</v>
       </c>
     </row>
@@ -3548,9 +3556,9 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>408</v>
-      </c>
-      <c r="C144" s="2">
+        <v>407</v>
+      </c>
+      <c r="C144" s="1">
         <v>1296632</v>
       </c>
     </row>
@@ -3559,9 +3567,9 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>409</v>
-      </c>
-      <c r="C145" s="2">
+        <v>408</v>
+      </c>
+      <c r="C145" s="1">
         <v>3288692</v>
       </c>
     </row>
@@ -3570,9 +3578,9 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>410</v>
-      </c>
-      <c r="C146" s="2">
+        <v>409</v>
+      </c>
+      <c r="C146" s="1">
         <v>53240</v>
       </c>
     </row>
@@ -3581,9 +3589,9 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>411</v>
-      </c>
-      <c r="C147" s="2">
+        <v>410</v>
+      </c>
+      <c r="C147" s="1">
         <v>120264</v>
       </c>
     </row>
@@ -3592,9 +3600,9 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>412</v>
-      </c>
-      <c r="C148" s="2">
+        <v>411</v>
+      </c>
+      <c r="C148" s="1">
         <v>498788</v>
       </c>
     </row>
@@ -3603,9 +3611,9 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>413</v>
-      </c>
-      <c r="C149" s="2">
+        <v>412</v>
+      </c>
+      <c r="C149" s="1">
         <v>1604396</v>
       </c>
     </row>
@@ -3614,9 +3622,9 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>414</v>
-      </c>
-      <c r="C150" s="2">
+        <v>413</v>
+      </c>
+      <c r="C150" s="1">
         <v>108826</v>
       </c>
     </row>
@@ -3625,9 +3633,9 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>415</v>
-      </c>
-      <c r="C151" s="2">
+        <v>414</v>
+      </c>
+      <c r="C151" s="1">
         <v>1857437</v>
       </c>
     </row>
@@ -3636,9 +3644,9 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>416</v>
-      </c>
-      <c r="C152" s="2">
+        <v>415</v>
+      </c>
+      <c r="C152" s="1">
         <v>54822</v>
       </c>
     </row>
@@ -3647,9 +3655,9 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>417</v>
-      </c>
-      <c r="C153" s="2">
+        <v>416</v>
+      </c>
+      <c r="C153" s="1">
         <v>131825</v>
       </c>
     </row>
@@ -3658,9 +3666,9 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>418</v>
-      </c>
-      <c r="C154" s="2">
+        <v>417</v>
+      </c>
+      <c r="C154" s="1">
         <v>1025028</v>
       </c>
     </row>
@@ -3669,9 +3677,9 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>419</v>
-      </c>
-      <c r="C155" s="2">
+        <v>418</v>
+      </c>
+      <c r="C155" s="1">
         <v>180831</v>
       </c>
     </row>
@@ -3680,9 +3688,9 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>420</v>
-      </c>
-      <c r="C156" s="2">
+        <v>419</v>
+      </c>
+      <c r="C156" s="1">
         <v>86417</v>
       </c>
     </row>
@@ -3691,9 +3699,9 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>421</v>
-      </c>
-      <c r="C157" s="2">
+        <v>420</v>
+      </c>
+      <c r="C157" s="1">
         <v>276910</v>
       </c>
     </row>
@@ -3702,9 +3710,9 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>422</v>
-      </c>
-      <c r="C158" s="2">
+        <v>421</v>
+      </c>
+      <c r="C158" s="1">
         <v>1021184</v>
       </c>
     </row>
@@ -3713,9 +3721,9 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>423</v>
-      </c>
-      <c r="C159" s="2">
+        <v>422</v>
+      </c>
+      <c r="C159" s="1">
         <v>1291680</v>
       </c>
     </row>
@@ -3724,9 +3732,9 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>424</v>
-      </c>
-      <c r="C160" s="2">
+        <v>423</v>
+      </c>
+      <c r="C160" s="1">
         <v>48876</v>
       </c>
     </row>
@@ -3735,9 +3743,9 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>425</v>
-      </c>
-      <c r="C161" s="2">
+        <v>424</v>
+      </c>
+      <c r="C161" s="1">
         <v>71030</v>
       </c>
     </row>
@@ -3746,9 +3754,9 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>426</v>
-      </c>
-      <c r="C162" s="2">
+        <v>425</v>
+      </c>
+      <c r="C162" s="1">
         <v>628524</v>
       </c>
     </row>
@@ -3757,9 +3765,9 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>427</v>
-      </c>
-      <c r="C163" s="2">
+        <v>426</v>
+      </c>
+      <c r="C163" s="1">
         <v>141160</v>
       </c>
     </row>
@@ -3768,9 +3776,9 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>428</v>
-      </c>
-      <c r="C164" s="2">
+        <v>427</v>
+      </c>
+      <c r="C164" s="1">
         <v>61464</v>
       </c>
     </row>
@@ -3779,9 +3787,9 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>429</v>
-      </c>
-      <c r="C165" s="2">
+        <v>428</v>
+      </c>
+      <c r="C165" s="1">
         <v>66579</v>
       </c>
     </row>
@@ -3790,9 +3798,9 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>430</v>
-      </c>
-      <c r="C166" s="2">
+        <v>429</v>
+      </c>
+      <c r="C166" s="1">
         <v>197263</v>
       </c>
     </row>
@@ -3801,9 +3809,9 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>431</v>
-      </c>
-      <c r="C167" s="2">
+        <v>430</v>
+      </c>
+      <c r="C167" s="1">
         <v>85234</v>
       </c>
     </row>
@@ -3812,9 +3820,9 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>432</v>
-      </c>
-      <c r="C168" s="2">
+        <v>431</v>
+      </c>
+      <c r="C168" s="1">
         <v>1154068</v>
       </c>
     </row>
@@ -3823,9 +3831,9 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>433</v>
-      </c>
-      <c r="C169" s="2">
+        <v>432</v>
+      </c>
+      <c r="C169" s="1">
         <v>160447</v>
       </c>
     </row>
@@ -3834,9 +3842,9 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>434</v>
-      </c>
-      <c r="C170" s="2">
+        <v>433</v>
+      </c>
+      <c r="C170" s="1">
         <v>938155</v>
       </c>
     </row>
@@ -3845,9 +3853,9 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>435</v>
-      </c>
-      <c r="C171" s="2">
+        <v>434</v>
+      </c>
+      <c r="C171" s="1">
         <v>150001</v>
       </c>
     </row>
@@ -3856,9 +3864,9 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>436</v>
-      </c>
-      <c r="C172" s="2">
+        <v>435</v>
+      </c>
+      <c r="C172" s="1">
         <v>765399</v>
       </c>
     </row>
@@ -3867,9 +3875,9 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>437</v>
-      </c>
-      <c r="C173" s="2">
+        <v>436</v>
+      </c>
+      <c r="C173" s="1">
         <v>1052149</v>
       </c>
     </row>
@@ -3878,9 +3886,9 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>438</v>
-      </c>
-      <c r="C174" s="2">
+        <v>437</v>
+      </c>
+      <c r="C174" s="1">
         <v>173192</v>
       </c>
     </row>
@@ -3889,9 +3897,9 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>439</v>
-      </c>
-      <c r="C175" s="2">
+        <v>438</v>
+      </c>
+      <c r="C175" s="1">
         <v>1770770</v>
       </c>
     </row>
@@ -3900,9 +3908,9 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>440</v>
-      </c>
-      <c r="C176" s="2">
+        <v>439</v>
+      </c>
+      <c r="C176" s="1">
         <v>55748</v>
       </c>
     </row>
@@ -3911,9 +3919,9 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>441</v>
-      </c>
-      <c r="C177" s="2">
+        <v>440</v>
+      </c>
+      <c r="C177" s="1">
         <v>220046</v>
       </c>
     </row>
@@ -3922,9 +3930,9 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>442</v>
-      </c>
-      <c r="C178" s="2">
+        <v>441</v>
+      </c>
+      <c r="C178" s="1">
         <v>109627</v>
       </c>
     </row>
@@ -3933,9 +3941,9 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>443</v>
-      </c>
-      <c r="C179" s="2">
+        <v>442</v>
+      </c>
+      <c r="C179" s="1">
         <v>236667</v>
       </c>
     </row>
@@ -3944,9 +3952,9 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>444</v>
-      </c>
-      <c r="C180" s="2">
+        <v>443</v>
+      </c>
+      <c r="C180" s="1">
         <v>1559917</v>
       </c>
     </row>
@@ -3955,9 +3963,9 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>445</v>
-      </c>
-      <c r="C181" s="2">
+        <v>444</v>
+      </c>
+      <c r="C181" s="1">
         <v>708388</v>
       </c>
     </row>
@@ -3966,9 +3974,9 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>446</v>
-      </c>
-      <c r="C182" s="2">
+        <v>445</v>
+      </c>
+      <c r="C182" s="1">
         <v>178771</v>
       </c>
     </row>
@@ -3977,9 +3985,9 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>447</v>
-      </c>
-      <c r="C183" s="2">
+        <v>446</v>
+      </c>
+      <c r="C183" s="1">
         <v>192739</v>
       </c>
     </row>
@@ -3988,9 +3996,9 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>448</v>
-      </c>
-      <c r="C184" s="2">
+        <v>447</v>
+      </c>
+      <c r="C184" s="1">
         <v>1239008</v>
       </c>
     </row>
@@ -3999,9 +4007,9 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>449</v>
-      </c>
-      <c r="C185" s="2">
+        <v>448</v>
+      </c>
+      <c r="C185" s="1">
         <v>609385</v>
       </c>
     </row>
@@ -4010,9 +4018,9 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>450</v>
-      </c>
-      <c r="C186" s="2">
+        <v>449</v>
+      </c>
+      <c r="C186" s="1">
         <v>640329</v>
       </c>
     </row>
@@ -4021,9 +4029,9 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>451</v>
-      </c>
-      <c r="C187" s="2">
+        <v>450</v>
+      </c>
+      <c r="C187" s="1">
         <v>1405076</v>
       </c>
     </row>
@@ -4032,9 +4040,9 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>452</v>
-      </c>
-      <c r="C188" s="2">
+        <v>451</v>
+      </c>
+      <c r="C188" s="1">
         <v>1453001</v>
       </c>
     </row>
@@ -4043,9 +4051,9 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>453</v>
-      </c>
-      <c r="C189" s="2">
+        <v>452</v>
+      </c>
+      <c r="C189" s="1">
         <v>717210</v>
       </c>
     </row>
@@ -4054,9 +4062,9 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>454</v>
-      </c>
-      <c r="C190" s="2">
+        <v>453</v>
+      </c>
+      <c r="C190" s="1">
         <v>1430131</v>
       </c>
     </row>
@@ -4065,9 +4073,9 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>455</v>
-      </c>
-      <c r="C191" s="2">
+        <v>454</v>
+      </c>
+      <c r="C191" s="1">
         <v>222461</v>
       </c>
     </row>
@@ -4076,9 +4084,9 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>456</v>
-      </c>
-      <c r="C192" s="2">
+        <v>455</v>
+      </c>
+      <c r="C192" s="1">
         <v>367281</v>
       </c>
     </row>
@@ -4087,9 +4095,9 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>457</v>
-      </c>
-      <c r="C193" s="2">
+        <v>456</v>
+      </c>
+      <c r="C193" s="1">
         <v>703571</v>
       </c>
     </row>
@@ -4098,9 +4106,9 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>458</v>
-      </c>
-      <c r="C194" s="2">
+        <v>457</v>
+      </c>
+      <c r="C194" s="1">
         <v>72086</v>
       </c>
     </row>
@@ -4109,9 +4117,9 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>459</v>
-      </c>
-      <c r="C195" s="2">
+        <v>458</v>
+      </c>
+      <c r="C195" s="1">
         <v>2147553</v>
       </c>
     </row>
@@ -4120,9 +4128,9 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>460</v>
-      </c>
-      <c r="C196" s="2">
+        <v>459</v>
+      </c>
+      <c r="C196" s="1">
         <v>314485</v>
       </c>
     </row>
@@ -4131,9 +4139,9 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>461</v>
-      </c>
-      <c r="C197" s="2">
+        <v>460</v>
+      </c>
+      <c r="C197" s="1">
         <v>83216</v>
       </c>
     </row>
@@ -4142,9 +4150,9 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>462</v>
-      </c>
-      <c r="C198" s="2">
+        <v>461</v>
+      </c>
+      <c r="C198" s="1">
         <v>326106</v>
       </c>
     </row>
@@ -4153,9 +4161,9 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>463</v>
-      </c>
-      <c r="C199" s="2">
+        <v>462</v>
+      </c>
+      <c r="C199" s="1">
         <v>16306271</v>
       </c>
     </row>
@@ -4164,9 +4172,9 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>464</v>
-      </c>
-      <c r="C200" s="2">
+        <v>463</v>
+      </c>
+      <c r="C200" s="1">
         <v>565885</v>
       </c>
     </row>
@@ -4175,9 +4183,9 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>465</v>
-      </c>
-      <c r="C201" s="2">
+        <v>464</v>
+      </c>
+      <c r="C201" s="1">
         <v>217555</v>
       </c>
     </row>
@@ -4186,9 +4194,9 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>466</v>
-      </c>
-      <c r="C202" s="2">
+        <v>465</v>
+      </c>
+      <c r="C202" s="1">
         <v>154107</v>
       </c>
     </row>
@@ -4197,9 +4205,9 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>467</v>
-      </c>
-      <c r="C203" s="2">
+        <v>466</v>
+      </c>
+      <c r="C203" s="1">
         <v>295245</v>
       </c>
     </row>
@@ -4208,9 +4216,9 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>468</v>
-      </c>
-      <c r="C204" s="2">
+        <v>467</v>
+      </c>
+      <c r="C204" s="1">
         <v>260166</v>
       </c>
     </row>
@@ -4219,9 +4227,9 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>469</v>
-      </c>
-      <c r="C205" s="2">
+        <v>468</v>
+      </c>
+      <c r="C205" s="1">
         <v>1620937</v>
       </c>
     </row>
@@ -4230,9 +4238,9 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>470</v>
-      </c>
-      <c r="C206" s="2">
+        <v>469</v>
+      </c>
+      <c r="C206" s="1">
         <v>123175</v>
       </c>
     </row>
@@ -4241,9 +4249,9 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>471</v>
-      </c>
-      <c r="C207" s="2">
+        <v>470</v>
+      </c>
+      <c r="C207" s="1">
         <v>204953</v>
       </c>
     </row>
@@ -4252,9 +4260,9 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>472</v>
-      </c>
-      <c r="C208" s="2">
+        <v>471</v>
+      </c>
+      <c r="C208" s="1">
         <v>110056</v>
       </c>
     </row>
@@ -4263,9 +4271,9 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>473</v>
-      </c>
-      <c r="C209" s="2">
+        <v>472</v>
+      </c>
+      <c r="C209" s="1">
         <v>68304</v>
       </c>
     </row>
@@ -4274,9 +4282,9 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>474</v>
-      </c>
-      <c r="C210" s="2">
+        <v>473</v>
+      </c>
+      <c r="C210" s="1">
         <v>87563</v>
       </c>
     </row>
@@ -4285,9 +4293,9 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>475</v>
-      </c>
-      <c r="C211" s="2">
+        <v>474</v>
+      </c>
+      <c r="C211" s="1">
         <v>190835</v>
       </c>
     </row>
@@ -4296,9 +4304,9 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>476</v>
-      </c>
-      <c r="C212" s="2">
+        <v>475</v>
+      </c>
+      <c r="C212" s="1">
         <v>320991</v>
       </c>
     </row>
@@ -4307,9 +4315,9 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>477</v>
-      </c>
-      <c r="C213" s="2">
+        <v>476</v>
+      </c>
+      <c r="C213" s="1">
         <v>154832</v>
       </c>
     </row>
@@ -4318,9 +4326,9 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>478</v>
-      </c>
-      <c r="C214" s="2">
+        <v>477</v>
+      </c>
+      <c r="C214" s="1">
         <v>825618</v>
       </c>
     </row>
@@ -4329,9 +4337,9 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>479</v>
-      </c>
-      <c r="C215" s="2">
+        <v>478</v>
+      </c>
+      <c r="C215" s="1">
         <v>206245</v>
       </c>
     </row>
@@ -4340,9 +4348,9 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>480</v>
-      </c>
-      <c r="C216" s="2">
+        <v>479</v>
+      </c>
+      <c r="C216" s="1">
         <v>130583</v>
       </c>
     </row>
@@ -4351,9 +4359,9 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>481</v>
-      </c>
-      <c r="C217" s="2">
+        <v>480</v>
+      </c>
+      <c r="C217" s="1">
         <v>569989</v>
       </c>
     </row>
@@ -4362,9 +4370,9 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>482</v>
-      </c>
-      <c r="C218" s="2">
+        <v>481</v>
+      </c>
+      <c r="C218" s="1">
         <v>139615</v>
       </c>
     </row>
@@ -4373,9 +4381,9 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>483</v>
-      </c>
-      <c r="C219" s="2">
+        <v>482</v>
+      </c>
+      <c r="C219" s="1">
         <v>1486904</v>
       </c>
     </row>
@@ -4384,9 +4392,9 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>484</v>
-      </c>
-      <c r="C220" s="2">
+        <v>483</v>
+      </c>
+      <c r="C220" s="1">
         <v>137395</v>
       </c>
     </row>
@@ -4395,9 +4403,9 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>485</v>
-      </c>
-      <c r="C221" s="2">
+        <v>484</v>
+      </c>
+      <c r="C221" s="1">
         <v>691572</v>
       </c>
     </row>
@@ -4406,9 +4414,9 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>486</v>
-      </c>
-      <c r="C222" s="2">
+        <v>485</v>
+      </c>
+      <c r="C222" s="1">
         <v>316723</v>
       </c>
     </row>
@@ -4417,9 +4425,9 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>487</v>
-      </c>
-      <c r="C223" s="2">
+        <v>486</v>
+      </c>
+      <c r="C223" s="1">
         <v>53450</v>
       </c>
     </row>
@@ -4428,9 +4436,9 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>488</v>
-      </c>
-      <c r="C224" s="2">
+        <v>487</v>
+      </c>
+      <c r="C224" s="1">
         <v>1432833</v>
       </c>
     </row>
@@ -4439,9 +4447,9 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>489</v>
-      </c>
-      <c r="C225" s="2">
+        <v>488</v>
+      </c>
+      <c r="C225" s="1">
         <v>4765089</v>
       </c>
     </row>
@@ -4450,9 +4458,9 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>490</v>
-      </c>
-      <c r="C226" s="2">
+        <v>489</v>
+      </c>
+      <c r="C226" s="1">
         <v>652577</v>
       </c>
     </row>
@@ -4461,9 +4469,9 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>491</v>
-      </c>
-      <c r="C227" s="2">
+        <v>490</v>
+      </c>
+      <c r="C227" s="1">
         <v>1315548</v>
       </c>
     </row>
@@ -4472,9 +4480,9 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>492</v>
-      </c>
-      <c r="C228" s="2">
+        <v>491</v>
+      </c>
+      <c r="C228" s="1">
         <v>173317</v>
       </c>
     </row>
@@ -4483,9 +4491,9 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>493</v>
-      </c>
-      <c r="C229" s="2">
+        <v>492</v>
+      </c>
+      <c r="C229" s="1">
         <v>75917</v>
       </c>
     </row>
@@ -4494,9 +4502,9 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>494</v>
-      </c>
-      <c r="C230" s="2">
+        <v>493</v>
+      </c>
+      <c r="C230" s="1">
         <v>89299</v>
       </c>
     </row>
@@ -4505,9 +4513,9 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>495</v>
-      </c>
-      <c r="C231" s="2">
+        <v>494</v>
+      </c>
+      <c r="C231" s="1">
         <v>39122</v>
       </c>
     </row>
@@ -4516,9 +4524,9 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>496</v>
-      </c>
-      <c r="C232" s="2">
+        <v>495</v>
+      </c>
+      <c r="C232" s="1">
         <v>211068</v>
       </c>
     </row>
@@ -4527,9 +4535,9 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>497</v>
-      </c>
-      <c r="C233" s="2">
+        <v>496</v>
+      </c>
+      <c r="C233" s="1">
         <v>63861</v>
       </c>
     </row>
@@ -4538,9 +4546,9 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>498</v>
-      </c>
-      <c r="C234" s="2">
+        <v>497</v>
+      </c>
+      <c r="C234" s="1">
         <v>2666621</v>
       </c>
     </row>
@@ -4549,9 +4557,9 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>499</v>
-      </c>
-      <c r="C235" s="2">
+        <v>498</v>
+      </c>
+      <c r="C235" s="1">
         <v>70124</v>
       </c>
     </row>
@@ -4560,9 +4568,9 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>500</v>
-      </c>
-      <c r="C236" s="2">
+        <v>499</v>
+      </c>
+      <c r="C236" s="1">
         <v>204383</v>
       </c>
     </row>
@@ -4571,9 +4579,9 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>501</v>
-      </c>
-      <c r="C237" s="2">
+        <v>500</v>
+      </c>
+      <c r="C237" s="1">
         <v>566461</v>
       </c>
     </row>
@@ -4582,9 +4590,9 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>502</v>
-      </c>
-      <c r="C238" s="2">
+        <v>501</v>
+      </c>
+      <c r="C238" s="1">
         <v>77418</v>
       </c>
     </row>
@@ -4593,9 +4601,9 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>503</v>
-      </c>
-      <c r="C239" s="2">
+        <v>502</v>
+      </c>
+      <c r="C239" s="1">
         <v>1299876</v>
       </c>
     </row>
@@ -4604,9 +4612,9 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>504</v>
-      </c>
-      <c r="C240" s="2">
+        <v>503</v>
+      </c>
+      <c r="C240" s="1">
         <v>294357</v>
       </c>
     </row>
@@ -4615,9 +4623,9 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>505</v>
-      </c>
-      <c r="C241" s="2">
+        <v>504</v>
+      </c>
+      <c r="C241" s="1">
         <v>164803</v>
       </c>
     </row>
@@ -4626,9 +4634,9 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>506</v>
-      </c>
-      <c r="C242" s="2">
+        <v>505</v>
+      </c>
+      <c r="C242" s="1">
         <v>2964512</v>
       </c>
     </row>
@@ -4637,9 +4645,9 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>507</v>
-      </c>
-      <c r="C243" s="2">
+        <v>506</v>
+      </c>
+      <c r="C243" s="1">
         <v>105088</v>
       </c>
     </row>
@@ -4648,9 +4656,9 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>508</v>
-      </c>
-      <c r="C244" s="2">
+        <v>507</v>
+      </c>
+      <c r="C244" s="1">
         <v>857968</v>
       </c>
     </row>
@@ -4659,9 +4667,9 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>509</v>
-      </c>
-      <c r="C245" s="2">
+        <v>508</v>
+      </c>
+      <c r="C245" s="1">
         <v>480173</v>
       </c>
     </row>
@@ -4670,9 +4678,9 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>510</v>
-      </c>
-      <c r="C246" s="2">
+        <v>509</v>
+      </c>
+      <c r="C246" s="1">
         <v>179899</v>
       </c>
     </row>
@@ -4681,23 +4689,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>511</v>
-      </c>
-      <c r="C247" s="2">
+        <v>510</v>
+      </c>
+      <c r="C247" s="1">
         <v>308013</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A248:C248"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4711,81 +4709,81 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" t="s">
         <v>250</v>
-      </c>
-      <c r="B5" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
         <v>252</v>
-      </c>
-      <c r="B6" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" t="s">
         <v>254</v>
-      </c>
-      <c r="B7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" t="s">
         <v>256</v>
-      </c>
-      <c r="B8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" t="s">
         <v>258</v>
-      </c>
-      <c r="B9" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s">
         <v>260</v>
-      </c>
-      <c r="B10" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
         <v>262</v>
-      </c>
-      <c r="B11" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
